--- a/MOOM.xlsx
+++ b/MOOM.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshugoyal/Desktop/Projects/69 streamlit dashboard/Rev Mortgage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBDEA2E-D68D-6B4E-A89E-212F974A29FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30315097-6B97-2B42-9BF2-F08F7ABCEDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SecureEquity" sheetId="1" r:id="rId1"/>
-    <sheet name="ARM" sheetId="4" r:id="rId2"/>
-    <sheet name="HEMC" sheetId="2" r:id="rId3"/>
-    <sheet name="HECM_Fixed" sheetId="5" r:id="rId4"/>
+    <sheet name="PLF" sheetId="6" r:id="rId1"/>
+    <sheet name="SecureEquity" sheetId="1" r:id="rId2"/>
+    <sheet name="ARM" sheetId="4" r:id="rId3"/>
+    <sheet name="HEMC" sheetId="2" r:id="rId4"/>
+    <sheet name="HECM_Fixed" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
   <si>
     <t>Rate Type</t>
   </si>
@@ -131,19 +132,59 @@
   </si>
   <si>
     <t>Extra Fee</t>
+  </si>
+  <si>
+    <t>Jumbo</t>
+  </si>
+  <si>
+    <t>HECM</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>BIRTH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,15 +204,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{82C03E87-F0B4-1F45-BE91-A4A4782414BC}"/>
+    <cellStyle name="Per cent 2" xfId="2" xr:uid="{943EA3C3-9B33-C34A-81FF-5AF9FDBC3EE6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,6 +533,596 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869502FD-575E-DE46-9115-356D23025278}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1962</v>
+      </c>
+      <c r="B2" s="4">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1961</v>
+      </c>
+      <c r="B3" s="4">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1960</v>
+      </c>
+      <c r="B4" s="4">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1959</v>
+      </c>
+      <c r="B5" s="4">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>1958</v>
+      </c>
+      <c r="B6" s="4">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>1957</v>
+      </c>
+      <c r="B7" s="4">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>1956</v>
+      </c>
+      <c r="B8" s="4">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.4042</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>1955</v>
+      </c>
+      <c r="B9" s="4">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.41139999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>1954</v>
+      </c>
+      <c r="B10" s="4">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1953</v>
+      </c>
+      <c r="B11" s="4">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>1952</v>
+      </c>
+      <c r="B12" s="4">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.433</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>1951</v>
+      </c>
+      <c r="B13" s="4">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>1950</v>
+      </c>
+      <c r="B14" s="4">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>1949</v>
+      </c>
+      <c r="B15" s="4">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1948</v>
+      </c>
+      <c r="B16" s="4">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.45540000000000003</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>1947</v>
+      </c>
+      <c r="B17" s="4">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>1946</v>
+      </c>
+      <c r="B18" s="4">
+        <v>76</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.4698</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>1945</v>
+      </c>
+      <c r="B19" s="4">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>1944</v>
+      </c>
+      <c r="B20" s="4">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.4874</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>1943</v>
+      </c>
+      <c r="B21" s="4">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>1942</v>
+      </c>
+      <c r="B22" s="4">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.505</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>1941</v>
+      </c>
+      <c r="B23" s="4">
+        <v>81</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>1940</v>
+      </c>
+      <c r="B24" s="4">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>1939</v>
+      </c>
+      <c r="B25" s="4">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.54039999999999999</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>1938</v>
+      </c>
+      <c r="B26" s="4">
+        <v>84</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>1937</v>
+      </c>
+      <c r="B27" s="4">
+        <v>85</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>1936</v>
+      </c>
+      <c r="B28" s="4">
+        <v>86</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.57740000000000002</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>1935</v>
+      </c>
+      <c r="B29" s="4">
+        <v>87</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>1934</v>
+      </c>
+      <c r="B30" s="4">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>1933</v>
+      </c>
+      <c r="B31" s="4">
+        <v>89</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>1932</v>
+      </c>
+      <c r="B32" s="4">
+        <v>90</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>1931</v>
+      </c>
+      <c r="B33" s="4">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.63770000000000004</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>1930</v>
+      </c>
+      <c r="B34" s="4">
+        <v>92</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>1929</v>
+      </c>
+      <c r="B35" s="4">
+        <v>93</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>1928</v>
+      </c>
+      <c r="B36" s="4">
+        <v>94</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.65780000000000005</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>1927</v>
+      </c>
+      <c r="B37" s="4">
+        <v>95</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>1926</v>
+      </c>
+      <c r="B38" s="4">
+        <v>96</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>1925</v>
+      </c>
+      <c r="B39" s="4">
+        <v>97</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>1924</v>
+      </c>
+      <c r="B40" s="4">
+        <v>98</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.68459999999999999</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>1923</v>
+      </c>
+      <c r="B41" s="4">
+        <v>99</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -599,7 +1250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -815,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
@@ -1504,11 +2155,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82844B8-BC5C-AB41-AA91-43B9C351D2D5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/MOOM.xlsx
+++ b/MOOM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshugoyal/Desktop/Projects/69 streamlit dashboard/Rev Mortgage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30315097-6B97-2B42-9BF2-F08F7ABCEDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A99B4E-0E10-3448-BC3F-B25598288D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLF" sheetId="6" r:id="rId1"/>
     <sheet name="SecureEquity" sheetId="1" r:id="rId2"/>
     <sheet name="ARM" sheetId="4" r:id="rId3"/>
-    <sheet name="HEMC" sheetId="2" r:id="rId4"/>
+    <sheet name="HECM" sheetId="2" r:id="rId4"/>
     <sheet name="HECM_Fixed" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -98,9 +98,6 @@
     <t>ARM</t>
   </si>
   <si>
-    <t>HEMC5</t>
-  </si>
-  <si>
     <t>0-10%</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>BIRTH</t>
+  </si>
+  <si>
+    <t>HECM5</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869502FD-575E-DE46-9115-356D23025278}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -545,16 +545,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1149,10 +1149,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -1271,10 +1271,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1487,10 +1487,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -1505,28 +1505,28 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
       </c>
       <c r="R1" t="s">
         <v>12</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>6.625</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>6.5</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>6.375</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>6.25</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>6.125</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>5.875</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>5.75</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>5.625</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>5.5</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>5.375</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>5.25</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>5.125</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>4.875</v>
@@ -2176,10 +2176,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>7.81</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>5000</v>

--- a/MOOM.xlsx
+++ b/MOOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshugoyal/Desktop/Projects/69 streamlit dashboard/Rev Mortgage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A99B4E-0E10-3448-BC3F-B25598288D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2611D1-31C2-E544-A453-3314B6CB739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/MOOM.xlsx
+++ b/MOOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshugoyal/Desktop/Projects/69 streamlit dashboard/Rev Mortgage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2611D1-31C2-E544-A453-3314B6CB739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC5C85A-BDEF-414B-9037-E0944FD0D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLF" sheetId="6" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>Rate Type</t>
   </si>
   <si>
     <t>1 Year CMT</t>
-  </si>
-  <si>
-    <t>Margin</t>
   </si>
   <si>
     <t>Premium</t>
@@ -536,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869502FD-575E-DE46-9115-356D23025278}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -545,16 +542,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1127,7 +1124,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,42 +1137,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>200000</v>
@@ -1195,10 +1192,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>200000</v>
@@ -1221,10 +1218,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>200000</v>
@@ -1255,55 +1252,55 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1321,7 +1318,7 @@
         <v>6.25</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2">
         <v>105.25</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1353,7 +1350,7 @@
         <v>6.125</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>105.125</v>
@@ -1367,7 +1364,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1385,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>105</v>
@@ -1399,7 +1396,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1417,7 +1414,7 @@
         <v>5.875</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5">
         <v>104.25</v>
@@ -1431,7 +1428,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1449,7 +1446,7 @@
         <v>5.7489999999999997</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6">
         <v>103.5</v>
@@ -1470,74 +1467,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
       <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
       <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
         <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>6.625</v>
@@ -1578,7 +1575,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>6.5</v>
@@ -1619,7 +1616,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>6.375</v>
@@ -1660,7 +1657,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>6.25</v>
@@ -1701,7 +1698,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>6.125</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>5.875</v>
@@ -1824,7 +1821,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>5.75</v>
@@ -1865,7 +1862,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>5.625</v>
@@ -1906,7 +1903,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>5.5</v>
@@ -1947,7 +1944,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>5.375</v>
@@ -1988,7 +1985,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>5.25</v>
@@ -2029,7 +2026,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>5.125</v>
@@ -2070,7 +2067,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -2111,7 +2108,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>4.875</v>
@@ -2160,46 +2157,46 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>7.81</v>
@@ -2210,7 +2207,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>5000</v>

--- a/MOOM.xlsx
+++ b/MOOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshugoyal/Desktop/Projects/69 streamlit dashboard/Rev Mortgage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC5C85A-BDEF-414B-9037-E0944FD0D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08451751-A227-0D46-A20A-D65D606CE079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLF" sheetId="6" r:id="rId1"/>
@@ -83,12 +83,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>SecureEquity Fixed Plus</t>
-  </si>
-  <si>
-    <t>SecureEquity Fixed</t>
-  </si>
-  <si>
     <t>Offer</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>70-80%</t>
   </si>
   <si>
-    <t>HECM Fixed</t>
-  </si>
-  <si>
     <t>Origination Fee%</t>
   </si>
   <si>
@@ -141,6 +132,15 @@
   </si>
   <si>
     <t>HECM5</t>
+  </si>
+  <si>
+    <t>SecureEquity_Fixed_Plus</t>
+  </si>
+  <si>
+    <t>SecureEquity_Fixed</t>
+  </si>
+  <si>
+    <t>HECM_Fixed</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869502FD-575E-DE46-9115-356D23025278}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -542,16 +542,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1124,12 +1124,12 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -1137,7 +1137,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1146,10 +1146,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1252,14 +1252,14 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1467,15 +1467,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1484,10 +1482,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1502,28 +1500,28 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
       </c>
       <c r="R1" t="s">
         <v>11</v>
@@ -1534,7 +1532,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>6.625</v>
@@ -1575,7 +1573,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>6.5</v>
@@ -1616,7 +1614,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>6.375</v>
@@ -1657,7 +1655,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>6.25</v>
@@ -1698,7 +1696,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>6.125</v>
@@ -1739,7 +1737,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1780,7 +1778,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>5.875</v>
@@ -1821,7 +1819,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>5.75</v>
@@ -1862,7 +1860,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>5.625</v>
@@ -1903,7 +1901,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>5.5</v>
@@ -1944,7 +1942,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>5.375</v>
@@ -1985,7 +1983,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>5.25</v>
@@ -2026,7 +2024,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>5.125</v>
@@ -2067,7 +2065,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -2108,7 +2106,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>4.875</v>
@@ -2156,15 +2154,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82844B8-BC5C-AB41-AA91-43B9C351D2D5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2173,10 +2171,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -2196,7 +2194,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>7.81</v>
@@ -2207,7 +2205,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>5000</v>

--- a/MOOM.xlsx
+++ b/MOOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshugoyal/Desktop/Projects/69 streamlit dashboard/Rev Mortgage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08451751-A227-0D46-A20A-D65D606CE079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F00F9F-2610-C54E-871F-53F7F8E2D72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLF" sheetId="6" r:id="rId1"/>
@@ -242,6 +242,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>52068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682C9AC6-D44C-C8A3-8CCE-1CC0C58DB4A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7137400"/>
+          <a:ext cx="7772400" cy="3201668"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,7 +1173,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1236,7 +1285,7 @@
         <v>30000</v>
       </c>
       <c r="H4">
-        <v>9.24</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="J4">
         <v>103</v>
@@ -1251,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1467,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1635,19 +1684,19 @@
         <v>106.125</v>
       </c>
       <c r="N4">
-        <v>105.25</v>
+        <v>105.5</v>
       </c>
       <c r="O4">
-        <v>105.125</v>
+        <v>105.375</v>
       </c>
       <c r="P4">
-        <v>104.5</v>
+        <v>104.625</v>
       </c>
       <c r="Q4">
-        <v>104.25</v>
+        <v>104.375</v>
       </c>
       <c r="R4">
-        <v>104</v>
+        <v>104.125</v>
       </c>
       <c r="S4">
         <v>103.875</v>
@@ -1670,28 +1719,28 @@
         <v>108.5</v>
       </c>
       <c r="L5">
-        <v>107.125</v>
+        <v>107.375</v>
       </c>
       <c r="M5">
-        <v>106.25</v>
+        <v>106.5</v>
       </c>
       <c r="N5">
-        <v>105.375</v>
+        <v>105.625</v>
       </c>
       <c r="O5">
-        <v>105.125</v>
+        <v>105.5</v>
       </c>
       <c r="P5">
+        <v>104.875</v>
+      </c>
+      <c r="Q5">
         <v>104.625</v>
       </c>
-      <c r="Q5">
-        <v>104.375</v>
-      </c>
       <c r="R5">
+        <v>104.25</v>
+      </c>
+      <c r="S5">
         <v>104.125</v>
-      </c>
-      <c r="S5">
-        <v>103.875</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1711,28 +1760,28 @@
         <v>108.125</v>
       </c>
       <c r="L6">
-        <v>107.125</v>
+        <v>107.375</v>
       </c>
       <c r="M6">
-        <v>106</v>
+        <v>106.25</v>
       </c>
       <c r="N6">
-        <v>105.25</v>
+        <v>105.5</v>
       </c>
       <c r="O6">
-        <v>105.125</v>
+        <v>105.5</v>
       </c>
       <c r="P6">
+        <v>104.75</v>
+      </c>
+      <c r="Q6">
         <v>104.5</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>104.25</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>104.125</v>
-      </c>
-      <c r="S6">
-        <v>103.875</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1752,28 +1801,28 @@
         <v>107.25</v>
       </c>
       <c r="L7">
-        <v>107</v>
+        <v>107.25</v>
       </c>
       <c r="M7">
-        <v>105.625</v>
+        <v>105.875</v>
       </c>
       <c r="N7">
-        <v>105</v>
+        <v>105.25</v>
       </c>
       <c r="O7">
-        <v>105</v>
+        <v>105.25</v>
       </c>
       <c r="P7">
-        <v>104.375</v>
+        <v>104.625</v>
       </c>
       <c r="Q7">
-        <v>103.875</v>
+        <v>104.125</v>
       </c>
       <c r="R7">
-        <v>103.875</v>
+        <v>104.125</v>
       </c>
       <c r="S7">
-        <v>103.625</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1793,28 +1842,28 @@
         <v>105.875</v>
       </c>
       <c r="L8">
-        <v>105.875</v>
+        <v>106.125</v>
       </c>
       <c r="M8">
-        <v>104.75</v>
+        <v>105</v>
       </c>
       <c r="N8">
-        <v>104.425</v>
+        <v>104.675</v>
       </c>
       <c r="O8">
-        <v>104.375</v>
+        <v>104.625</v>
       </c>
       <c r="P8">
-        <v>103.875</v>
+        <v>104.125</v>
       </c>
       <c r="Q8">
-        <v>103.5</v>
+        <v>103.75</v>
       </c>
       <c r="R8">
-        <v>103.375</v>
+        <v>103.625</v>
       </c>
       <c r="S8">
-        <v>103.375</v>
+        <v>103.75</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1834,28 +1883,28 @@
         <v>104.125</v>
       </c>
       <c r="L9">
-        <v>104.625</v>
+        <v>104.875</v>
       </c>
       <c r="M9">
+        <v>104.25</v>
+      </c>
+      <c r="N9">
+        <v>103.75</v>
+      </c>
+      <c r="O9">
         <v>104</v>
       </c>
-      <c r="N9">
-        <v>103.5</v>
-      </c>
-      <c r="O9">
+      <c r="P9">
         <v>103.75</v>
       </c>
-      <c r="P9">
-        <v>103.5</v>
-      </c>
       <c r="Q9">
+        <v>103.375</v>
+      </c>
+      <c r="R9">
         <v>103.125</v>
       </c>
-      <c r="R9">
-        <v>102.875</v>
-      </c>
       <c r="S9">
-        <v>102.875</v>
+        <v>103.125</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1875,28 +1924,28 @@
         <v>103</v>
       </c>
       <c r="L10">
-        <v>103.75</v>
+        <v>104</v>
       </c>
       <c r="M10">
-        <v>103.375</v>
+        <v>103.625</v>
       </c>
       <c r="N10">
+        <v>103.5</v>
+      </c>
+      <c r="O10">
+        <v>103.625</v>
+      </c>
+      <c r="P10">
         <v>103.25</v>
       </c>
-      <c r="O10">
-        <v>103.375</v>
-      </c>
-      <c r="P10">
+      <c r="Q10">
         <v>103</v>
       </c>
-      <c r="Q10">
-        <v>102.75</v>
-      </c>
       <c r="R10">
-        <v>102.625</v>
+        <v>102.875</v>
       </c>
       <c r="S10">
-        <v>102.5</v>
+        <v>102.875</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1916,28 +1965,28 @@
         <v>101.125</v>
       </c>
       <c r="L11">
+        <v>102.5</v>
+      </c>
+      <c r="M11">
+        <v>102.5</v>
+      </c>
+      <c r="N11">
+        <v>102.625</v>
+      </c>
+      <c r="O11">
+        <v>102.75</v>
+      </c>
+      <c r="P11">
+        <v>102.375</v>
+      </c>
+      <c r="Q11">
         <v>102.25</v>
       </c>
-      <c r="M11">
+      <c r="R11">
         <v>102.25</v>
       </c>
-      <c r="N11">
-        <v>102.375</v>
-      </c>
-      <c r="O11">
-        <v>102.5</v>
-      </c>
-      <c r="P11">
+      <c r="S11">
         <v>102.125</v>
-      </c>
-      <c r="Q11">
-        <v>102</v>
-      </c>
-      <c r="R11">
-        <v>102</v>
-      </c>
-      <c r="S11">
-        <v>101.875</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1957,28 +2006,28 @@
         <v>100.125</v>
       </c>
       <c r="L12">
-        <v>101.125</v>
+        <v>101.375</v>
       </c>
       <c r="M12">
-        <v>101.375</v>
+        <v>101.625</v>
       </c>
       <c r="N12">
-        <v>101.375</v>
+        <v>101.875</v>
       </c>
       <c r="O12">
-        <v>101.625</v>
+        <v>101.875</v>
       </c>
       <c r="P12">
-        <v>101.375</v>
+        <v>101</v>
       </c>
       <c r="Q12">
-        <v>101.25</v>
+        <v>101.5</v>
       </c>
       <c r="R12">
-        <v>101.25</v>
+        <v>101.5</v>
       </c>
       <c r="S12">
-        <v>101.25</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1998,28 +2047,28 @@
         <v>97.75</v>
       </c>
       <c r="L13">
-        <v>100.375</v>
+        <v>100.75</v>
       </c>
       <c r="M13">
-        <v>100.375</v>
+        <v>100.75</v>
       </c>
       <c r="N13">
-        <v>100.5</v>
+        <v>100.875</v>
       </c>
       <c r="O13">
+        <v>101.125</v>
+      </c>
+      <c r="P13">
+        <v>101</v>
+      </c>
+      <c r="Q13">
+        <v>100.875</v>
+      </c>
+      <c r="R13">
+        <v>100.875</v>
+      </c>
+      <c r="S13">
         <v>100.75</v>
-      </c>
-      <c r="P13">
-        <v>100.625</v>
-      </c>
-      <c r="Q13">
-        <v>100.5</v>
-      </c>
-      <c r="R13">
-        <v>100.5</v>
-      </c>
-      <c r="S13">
-        <v>100.5</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -2039,28 +2088,28 @@
         <v>96.5</v>
       </c>
       <c r="L14">
-        <v>98.875</v>
+        <v>99.25</v>
       </c>
       <c r="M14">
-        <v>99.875</v>
+        <v>100.25</v>
       </c>
       <c r="N14">
-        <v>99.875</v>
+        <v>100.25</v>
       </c>
       <c r="O14">
-        <v>99.875</v>
+        <v>100.25</v>
       </c>
       <c r="P14">
-        <v>99.875</v>
+        <v>100.25</v>
       </c>
       <c r="Q14">
-        <v>99.875</v>
+        <v>100.25</v>
       </c>
       <c r="R14">
-        <v>99.875</v>
+        <v>100.25</v>
       </c>
       <c r="S14">
-        <v>99.875</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -2147,6 +2196,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2154,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82844B8-BC5C-AB41-AA91-43B9C351D2D5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/MOOM.xlsx
+++ b/MOOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshugoyal/Desktop/Projects/69 streamlit dashboard/Rev Mortgage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F00F9F-2610-C54E-871F-53F7F8E2D72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10916978-16BB-744F-A27F-6104478F5C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLF" sheetId="6" r:id="rId1"/>
@@ -206,9 +206,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +222,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,580 +591,580 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1962</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>60</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1961</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>61</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1960</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>62</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.376</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1959</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>63</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.38300000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.435</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1958</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>64</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.39</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>1957</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>65</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.39700000000000002</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>1956</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>66</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.4042</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>1955</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>67</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.41139999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1954</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>68</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.41860000000000003</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1953</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>69</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.42580000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>1952</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>70</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.433</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>1951</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>71</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.43859999999999999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.497</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>1950</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>72</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.44419999999999998</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>1949</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>73</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.44979999999999998</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>1948</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>74</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.45540000000000003</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>1947</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>75</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.46100000000000002</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>1946</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>76</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.4698</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>1945</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>77</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.47860000000000003</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>1944</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>78</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.4874</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>1943</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>79</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.49619999999999997</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>1942</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>80</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.505</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>0.59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>1941</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>81</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.51680000000000004</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>1940</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>82</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.52859999999999996</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>0.60299999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>1939</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>83</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>0.54039999999999999</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>1938</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>84</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>0.55220000000000002</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>0.60799999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>1937</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>85</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.56399999999999995</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>0.61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>1936</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>86</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>0.57740000000000002</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>1935</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>87</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>0.59079999999999999</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>1934</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>88</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>1933</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>89</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.61760000000000004</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>1932</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>90</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>0.63100000000000001</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>1931</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>91</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.63770000000000004</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>1930</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>92</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.64439999999999997</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>1929</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>93</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>0.65110000000000001</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>1928</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>94</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>0.65780000000000005</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>1927</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>95</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>0.66449999999999998</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>1926</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>96</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>0.67120000000000002</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>1925</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>97</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>0.67789999999999995</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>1924</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>98</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>0.68459999999999999</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>1923</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>99</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>0.69130000000000003</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>0.61099999999999999</v>
       </c>
     </row>
@@ -1172,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1227,10 +1232,13 @@
         <v>200000</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
+      </c>
+      <c r="G2">
+        <v>30000</v>
       </c>
       <c r="H2">
         <v>8.99</v>
@@ -1250,13 +1258,10 @@
         <v>200000</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>0</v>
-      </c>
-      <c r="G3">
-        <v>30000</v>
       </c>
       <c r="H3">
         <v>8.74</v>
@@ -1276,13 +1281,10 @@
         <v>200000</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>0</v>
-      </c>
-      <c r="G4">
-        <v>30000</v>
       </c>
       <c r="H4">
         <v>8.9499999999999993</v>
@@ -1300,9 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView zoomScale="101" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1366,7 +1366,7 @@
       <c r="I2">
         <v>6.25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K2">
@@ -1398,7 +1398,7 @@
       <c r="I3">
         <v>6.125</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K3">
@@ -1430,7 +1430,7 @@
       <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4">
@@ -1462,7 +1462,7 @@
       <c r="I5">
         <v>5.875</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K5">
@@ -1494,7 +1494,7 @@
       <c r="I6">
         <v>5.7489999999999997</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K6">
@@ -1516,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2204,9 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82844B8-BC5C-AB41-AA91-43B9C351D2D5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
